--- a/data/Preprocessing_text/ref_data.xlsx
+++ b/data/Preprocessing_text/ref_data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Preprocessing_text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD675C-9F36-4011-87C2-3C9803F79CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5915B19-A726-43DE-B07B-90B7E54C16FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>reference_answer</t>
   </si>
@@ -34,12 +47,6 @@
     <t>Graduates of the Bachelor's in Information Systems typically find work in sectors such as Information Technology Companies, Banking, Insurance, Health, Telecommunications, Logistics/Distribution, E-Business, Consulting, and Public Administration.</t>
   </si>
   <si>
-    <t>Business Intelligence I (7.5 ECTS) Data Governance (3.5 ECTS) Data Mining I (7.5 ECTS) Data Privacy, Security and Ethics (4 ECTS) There are a vast diversity of elective courses available in the first semester, such as: Applied Multivariate Data Analysis Brand Management Business Process Management For full details on all elective options, please visit the official course page.</t>
-  </si>
-  <si>
-    <t>In the first semester of the postgraduate program in Digital Enterprise Management, there are Adoption Models (4 ECTS), Change Management (3.5 ECTS), Digital Transformation Capstone Project (7.5 ECTS), Online Collaboration Tools (7.5 ECTS) There are a vast diversity of elective courses. The first three listed for the first semester are: Applied Multivariate Data Analysis, Applied Network Analysis, Banking and Insurance Operations Please visit the official course page for full elective details.</t>
-  </si>
-  <si>
     <t>The email of Professor Bruno Jardim is bjardim@novaims.unl.pt.</t>
   </si>
   <si>
@@ -58,9 +65,6 @@
     <t>The Postgraduate in Geospatial Data Science targets managers and staff able to analyze, model, and visualize geographic information in environments with large amounts of data. It is taught in Portuguese and aimed at Portuguese-speaking African countries, Portugal, Brazil, Timor, and Portuguese communities worldwide.</t>
   </si>
   <si>
-    <t>No, a background in statistics is not explicitly required. Applicants should hold a relevant bachelor's degree or equivalent in fields such as Statistics and Information Management, Geography, Economics, Engineering, Computer Sciences, Physics, Mathematics, Architecture, Urban and Regional Planning, or other relevant scientific areas approved by the Scientific Council of NOVA IMS.</t>
-  </si>
-  <si>
     <t>The Postgraduate in Data Science for Marketing is aimed at managers, technical staff, and other professionals who wish to acquire analytical skills in marketing using advanced technologies and methodologies for data collection, analysis, and processing to enable data-driven decision-making.</t>
   </si>
   <si>
@@ -98,12 +102,6 @@
   </si>
   <si>
     <t>The Master Degree in Data-Driven Marketing with a specialization in Marketing Intelligence is only offered in-person, with classes held during working hours or after 6:30 p.m.; there is no mention of an online format.</t>
-  </si>
-  <si>
-    <t>Each academic year in the Bachelors in Data Science covers 60 ECTS. The program totals 180 ECTS over 3 years (6 semesters), with a consistent annual distribution of 60 ECTS per year.</t>
-  </si>
-  <si>
-    <t>The course Statistics and Probability Distributions in the Bachelor's in Data Science is allocated 6 ECTS.</t>
   </si>
   <si>
     <t>In the spring semester of the third year of the Bachelor's in Data Science, students choose from a wide range of elective courses such as Applied Economics, Digital Innovation Projects, Entrepreneurship and Project Analysis, Financial Calculus and Project Analysis, Geospatial Analytics, Informatics and Information Law, Information Systems Seminar, IT Governance and Service Management, Network Analysis, People Management and Leadership, Process Intelligence, Risk Management, Web Analytics, and Web Marketing and E-business; please visit the official course page for full details.</t>
@@ -168,124 +166,161 @@
 Upon completion, you will be equipped to act as an expert, capable of directly and creatively managing, advising, and participating in the development and application of information systems technologies, managing information systems departments, and driving changes that lead to the strategic renewal of businesses through the restructuring of business processes and the application of information technology.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The application fee for the European Master of Science in Information Systems Management at NOVA IMS is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. This fee is non-refundable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The application fee for the Postgraduate Program in Business Intelligence and Analytics for Hospitality Tourism is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. This fee is non-refundable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The application fee for the Postgraduate Program in Geospatial Intelligence is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. This fee is non-refundable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The application fee for the Postgraduate Program in Risk Analysis and Management is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. This fee is non-refundable.</t>
-    </r>
-  </si>
-  <si>
     <t>The Bachelors in Data Science curriculum in the second semester of the first year is structured with a strong emphasis on practical learning, though it includes essential theoretical components. Most courses combine theoretical and practical teaching formats, particularly in subjects like algorithms, artificial intelligence, computational thinking, and statistics, which are delivered through sessions labeled as TP (theoretical/practical) or PL (practical laboratory). Purely theoretical instruction is limited and primarily found in the mathematical analysis courses. Overall, the semester prioritizes hands-on application and real-world problem-solving, while theoretical learning is integrated where foundational understanding is necessary.</t>
   </si>
   <si>
     <t>The courses in the spring semester of the third year in the Bachelors in Data Science are all electives and are structured to focus heavily on applied, practical learning. Most of the courses are delivered through TP (theoretical/practical) sessions with additional tutor support (OT), emphasizing real-world applications in areas like risk management, web analytics, entrepreneurship, and geospatial analytics. There is a wide range of topics, allowing students to tailor their learning toward specific interests or career paths. The overall structure reflects a shift toward specialization and project-based learning, with limited purely theoretical instruction.</t>
   </si>
   <si>
-    <t>The postgraduate program in Digital Transformation is open to both recent graduates and experienced professionals. While the exact entry requirements are not explicitly detailed in the context, it is clear that the program targets individuals with backgrounds in engineering, management, or technology who want to deepen their understanding of digital transformation. Applicants are expected to have an academic or professional foundation in these areas and a strong interest in leveraging technology for business innovation. The program starts in September 2025, lasts two semesters (60 ECTS), and applications are accepted from March 10 to April 10, 2025.</t>
+    <t>Mandatory Courses (4 courses):
+Business Intelligence I
+Data Governance
+Data Mining I
+Data Privacy, Security and Ethics
+Elective Courses (25 courses):
+Applied Multivariate Data Analysis
+Brand Management
+Business Process Management
+Change Management
+Data Governance
+Data Management and Storage
+Data Mining I
+Data Privacy, Security and Ethics
+Digital Analytics
+Digital Marketing &amp; E-Commerce
+Experimental Design
+Forecasting Methods
+Information Management Systems
+Information Systems Development
+Information Systems Governance
+Information Technologies Services Management
+Investments and Portfolio Management
+Life Insurance
+Marketing Strategy and Innovation
+Non-Life Insurance
+Statistical Analysis
+Time Series Analysis
+Transformação Digital
+Note that some courses (Data Governance, Data Mining I, and Data Privacy, Security and Ethics) appear in both mandatory and elective lists.
+For full details about the program structure, I suggest visiting the official course page.</t>
+  </si>
+  <si>
+    <t>Mandatory Courses (4 courses):
+Adoption Models
+Change Management
+Digital Transformation Capstone Project
+Online Collaboration Tools
+Elective Courses (30 courses):
+Applied Multivariate Data Analysis
+Applied Network Analysis
+Banking and Insurance Operations
+Brand Management
+Business Intelligence I
+Business Process Management
+Business Process Management
+Data Governance
+Data Privacy, Security and Ethics
+Data Science for Marketing
+DataBase Management Systems
+Descriptive Analytics in Marketing
+Descriptive Methods of Data Mining
+Descriptive Methods of Data Mining
+Digital Analytics
+Digital Marketing &amp; E-Commerce
+Enterprise Cloud Mobility
+Experimental Design
+Forecasting Methods
+Information Management Systems
+Information Systems Governance
+Investments and Portfolio Management
+Life &amp; Non-Life Actuarial Techniques
+Marketing Strategy and Innovation
+Smart and Sustainable Cities
+Social Network Analysis
+Statistical Analysis
+Time Series Analysis
+Note that some courses appear duplicated in the elective list (Business Process Management and Descriptive Methods of Data Mining).
+For full details about the program structure, I suggest visiting the official course page.</t>
+  </si>
+  <si>
+    <t>Fall Semester (1st year - Fall Semester)
+Mandatory Courses (3 courses):
+Brand Management
+Digital Marketing &amp; E-Commerce
+Marketing Strategy and Innovation
+Elective Courses (11 courses):
+Applied Network Analysis
+Business Intelligence I
+Business Process Management
+Data Privacy, Security and Ethics
+Data Science for Marketing
+Descriptive Analytics in Marketing
+Digital Analytics
+Experimental Design
+Information Management Systems
+Information Technologies Services Management
+Social Network Analysis
+Transformação Digital
+Spring Semester (1st year - Spring Semester)
+Mandatory Courses (3 courses):
+Consumer Behavior Insights
+Market Research
+Marketing Engineering and Analytics
+Elective Courses (15 courses):
+Big Data for Marketing
+Business Intelligence II
+Customer Relationship Management Systems
+Data Visualization
+Data-driven decision making
+Digital Transformation
+Generative AI Applied to Marketing
+Knowledge Management
+Machine Learning in Marketing
+Predictive Analytics in Marketing
+Process Mining Powered By Nokia
+Sampling Theory and Methods
+Search Engine Optimization
+Social Media Analytics
+UX Research
+For full details about the program structure, I suggest visiting the official course page.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, to apply for the Postgraduate Program in Geospatial Data Science, you need to hold a relevant bachelor's degree or equivalent in one of the following fields:
+Statistics and Information Management
+Geography
+Economics
+Engineering
+Computer Sciences
+Physics
+Mathematics
+Architecture
+Urban and Regional Planning
+Other relevant scientific fields (to be approved by the Scientific Council of NOVA IMS)</t>
+  </si>
+  <si>
+    <t>Big Data Analytics for Business has 4 ECTS.</t>
+  </si>
+  <si>
+    <t>Unfortunately, I do not have information on the entry requirements for the postgraduate program in culinary. Please refer to the official website or contact NOVA IMS directly for further information</t>
+  </si>
+  <si>
+    <t>The application fee for the European Master of Science in Information Systems Management at NOVA IMS is €51. This fee is non-refundable.</t>
+  </si>
+  <si>
+    <t>The application fee for the Postgraduate Program in Business Intelligence and Analytics for Hospitality Tourism is €51. This fee is non-refundable.</t>
+  </si>
+  <si>
+    <t>The application fee for the Postgraduate Program in Geospatial Intelligence is €51. This fee is non-refundable.</t>
+  </si>
+  <si>
+    <t>The application fee for the Postgraduate Program in Risk Analysis and Management is €51. This fee is non-refundable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,14 +332,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -358,6 +385,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,239 +721,234 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>43</v>
+      <c r="A48" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>44</v>
+      <c r="A49" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>46</v>
+      <c r="A50" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
